--- a/testdata/appointmentData.xlsx
+++ b/testdata/appointmentData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>facility</t>
   </si>
@@ -44,21 +44,6 @@
   </si>
   <si>
     <t>Some text to fill the comment textfield</t>
-  </si>
-  <si>
-    <t>Seoul CURA Healthcare Center</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>23/12/2024</t>
-  </si>
-  <si>
-    <t>Some other text to fill the comment bar</t>
   </si>
 </sst>
 </file>
@@ -434,7 +419,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -481,23 +466,6 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testdata/appointmentData.xlsx
+++ b/testdata/appointmentData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>facility</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>Some text to fill the comment textfield</t>
+  </si>
+  <si>
+    <t>Seoul CURA Healthcare Center</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>23/12/2024</t>
+  </si>
+  <si>
+    <t>Some other text to fill the comment bar</t>
   </si>
 </sst>
 </file>
@@ -419,7 +434,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -466,6 +481,23 @@
         <v>9</v>
       </c>
     </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
